--- a/main/data/valid_parentheses.xlsx
+++ b/main/data/valid_parentheses.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.20668983459473</v>
+        <v>17.0590877532959</v>
       </c>
       <c r="D2" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.83530616760254</v>
+        <v>16.71767234802246</v>
       </c>
       <c r="D3" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.11408996582031</v>
+        <v>16.83425903320312</v>
       </c>
       <c r="D4" t="n">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.6398754119873</v>
+        <v>16.97397232055664</v>
       </c>
       <c r="D5" t="n">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.50707626342773</v>
+        <v>17.84706115722656</v>
       </c>
       <c r="D6" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/valid_parentheses.xlsx
+++ b/main/data/valid_parentheses.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.0590877532959</v>
+        <v>16.66879653930664</v>
       </c>
       <c r="D2" t="n">
         <v>176</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.71767234802246</v>
+        <v>16.03007316589355</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.83425903320312</v>
+        <v>16.1888599395752</v>
       </c>
       <c r="D4" t="n">
         <v>177</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.97397232055664</v>
+        <v>16.04318618774414</v>
       </c>
       <c r="D5" t="n">
         <v>177</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.84706115722656</v>
+        <v>16.18576049804688</v>
       </c>
       <c r="D6" t="n">
         <v>176</v>

--- a/main/data/valid_parentheses.xlsx
+++ b/main/data/valid_parentheses.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.66879653930664</v>
+        <v>21.56901359558105</v>
       </c>
       <c r="D2" t="n">
         <v>176</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.03007316589355</v>
+        <v>20.48993110656738</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.1888599395752</v>
+        <v>22.85623550415039</v>
       </c>
       <c r="D4" t="n">
         <v>177</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.04318618774414</v>
+        <v>19.31190490722656</v>
       </c>
       <c r="D5" t="n">
         <v>177</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.18576049804688</v>
+        <v>20.57194709777832</v>
       </c>
       <c r="D6" t="n">
         <v>176</v>
